--- a/results/epsilon/nim/1k-test-games/Nim_EpsilonResults_Wins_Comparison_1kTestGames.xlsx
+++ b/results/epsilon/nim/1k-test-games/Nim_EpsilonResults_Wins_Comparison_1kTestGames.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Win Rates" sheetId="3" r:id="rId1"/>
     <sheet name="Graph" sheetId="4" r:id="rId2"/>
     <sheet name="Graph (no title)" sheetId="6" r:id="rId3"/>
+    <sheet name="Wide Graph (no title)" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -136,7 +137,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5306,11 +5306,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="193303680"/>
-        <c:axId val="193305600"/>
+        <c:axId val="241345664"/>
+        <c:axId val="241347584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193303680"/>
+        <c:axId val="241345664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5332,14 +5332,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193305600"/>
+        <c:crossAx val="241347584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5349,7 +5348,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193305600"/>
+        <c:axId val="241347584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5381,21 +5380,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193303680"/>
+        <c:crossAx val="241345664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5444,6 +5441,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -6087,6 +6091,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -6730,6 +6741,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -7369,6 +7387,656 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>8k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Win Rates'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Win Rates'!$E$2:$E$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.78100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.751</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.751</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.751</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.751</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.75600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.72199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.754</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.71899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.74399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.72699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.755</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.72099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.70699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.72799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.70699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.71899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.72099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.71799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.67900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.72699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.68899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.68100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.68799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.71099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.66900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.66600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.66400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.68500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.64200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.66100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.65400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.65200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.64400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.66100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.61399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.61899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.624</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.63700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.59299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.622</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.58299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.61699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.59899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.58799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.57099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.60499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.57299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.57099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.56599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.57599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.56899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.56699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.51900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.54200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.52900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.51900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.54500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.502</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.52100000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Win Rates'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16k</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7697,6 +8365,4630 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>'Win Rates'!$F$2:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.74299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.75800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.75700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.75700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.74099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.73799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.73399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.72899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.70399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.72699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.72399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.69299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.70399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.72199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.68100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.68799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.69499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.68200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.66800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.68700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.68700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.64700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.65300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.68799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.63500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.65400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.63600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.60499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.621</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.65700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.64200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.624</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.61499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.63500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.59599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.59499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.61699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.58199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.59899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.57899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.58599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.59499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.57199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.59499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.58199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.53100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.53700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.52200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.54700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.56399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.53400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.53500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.49199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.496</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.51400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.51600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.51500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.49199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Win Rates'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Win Rates'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Win Rates'!$G$2:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.749</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.754</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.77100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.73799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.71799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.74299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.74299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.747</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.70699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.73799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.70299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.72599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.70299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.69899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.70299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.70199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.70599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.66400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.66400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.71199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.66900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.68899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.65200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.66600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.66700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.69899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.68100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.66900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.63700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.624</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.629</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.61899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.57699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.61299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.626</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.60899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.58199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.59099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.59599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.61199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.59199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.58299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.56799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.59499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.59399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.57199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.57199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.56499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.53400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.53400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.52700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.55400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.53300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.56499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.53100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.503</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.52100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.503</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.49199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.51300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Win Rates'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Win Rates'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Win Rates'!$H$2:$H$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.51500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.753</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.748</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.73899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.72099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.75800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.73299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.74199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.73699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.751</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.73499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.73199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.73499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.70899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.72699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.70299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.70699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.69199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.70199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.72399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.69499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.72099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.68200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.70599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.69499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.68100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.69399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.65900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.66100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.64400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.66800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.63700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.65400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.65300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.627</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.627</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.629</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.60899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.63200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.56699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.58699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.56699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.57299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.60299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.59699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.58399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.59199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.56799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.56399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.54500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.51500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.54300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.504</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.53500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.51900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.505</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.498</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.50600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.54100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Win Rates'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Win Rates'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Win Rates'!$I$2:$I$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.51900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.74299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.754</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.73699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.751</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.76200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.74299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.755</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.74199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.73099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.70899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.71099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.71899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.69499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.71199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.68799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.69699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.68500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.68600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.69899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.70399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.71699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.68700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.66600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.67600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.66100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.69899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.69599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.65300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.66900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.66400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.66900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.63500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.61199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.627</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.63900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.61699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.629</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.60699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.59499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.60399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.61099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.626</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.59899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.59799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.57599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.56399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.57299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.56499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.54800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.58599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.55100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.55100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.56299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.56100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.51100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.53100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.51900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.52600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.53700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.49299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.51900000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="242009600"/>
+        <c:axId val="242011136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="242009600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="242011136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:tickMarkSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="242011136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="242009600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Win Rates'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Win Rates'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Win Rates'!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.68300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.70499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.71899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.70399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.69299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.69699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.69899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.72399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.71199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.68799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.66600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.66100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.69299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.67700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.66100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.66800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.68500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.67600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.65300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.61199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.60799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.61099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.56799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.61499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.60899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.61099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.624</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.59599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.60299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.58399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.59599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.57099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.58799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.56899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.56299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.56399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.57099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.53800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.55700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.51600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.54300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.54700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.51400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.53100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Win Rates'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Win Rates'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Win Rates'!$C$2:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.34399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.746</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.755</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.71599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.71599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.73699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.71799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.746</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.749</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.71799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.71699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.72199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.71099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.71699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.71599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.73399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.70499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.72299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.70399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.71199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.71099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.71599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.68500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.68899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.69199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.70299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.72299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.69199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.67200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.66900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.68700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.66800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.63700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.66800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.63900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.63700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.65200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.63300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.64100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.61299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.623</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.623</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.622</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.58299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.59399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.59599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.60299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.59399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.60499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.58899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.59899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.54500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.59499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.56299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.55800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.53400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.498</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.51600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.53100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.505</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.51400000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Win Rates'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Win Rates'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Win Rates'!$D$2:$D$102</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.53400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.753</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.73899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.76400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.75900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.75600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.71899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.755</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.75600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.72799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.73499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.73199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.72199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.72699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.73899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.68200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.70499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.68500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.66800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.68200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.68300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.67900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.69399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.67200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.68300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.66800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.65300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.64200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.622</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.61199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.61599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.59499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.61599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.59699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.59799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.60299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.61299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.56100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.59799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.622</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.59599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.57399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.56799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.53200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.55800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.53400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.51100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.54100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.49299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.496</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.50600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.52700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.51500000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Win Rates'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Win Rates'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>'Win Rates'!$E$2:$E$102</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
@@ -8023,6 +13315,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -8666,6 +13965,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -10591,11 +15897,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="192556032"/>
-        <c:axId val="192558208"/>
+        <c:axId val="242467200"/>
+        <c:axId val="242468736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192556032"/>
+        <c:axId val="242467200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10605,7 +15911,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192558208"/>
+        <c:crossAx val="242468736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10615,7 +15921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192558208"/>
+        <c:axId val="242468736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10627,7 +15933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192556032"/>
+        <c:crossAx val="242467200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10698,6 +16004,43 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>10890</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12699</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>10890</xdr:rowOff>
     </xdr:to>
@@ -14005,8 +19348,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
